--- a/checklist.xlsx
+++ b/checklist.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josphze\Desktop\SD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Desktop\ProjetoSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6334CF2-E889-4391-90A4-AC61544AAAAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB479E0-8045-4F79-BA1A-F71C482A9A34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2016-2017" sheetId="2" r:id="rId1"/>
+    <sheet name="Todo" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'2016-2017'!$A$1:$C$61</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Requisitos Funcionais</t>
   </si>
@@ -244,6 +245,27 @@
   </si>
   <si>
     <t>Deviamos checkar:</t>
+  </si>
+  <si>
+    <t>Adicionar Tag Admin na Pessoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pagina Votar </t>
+  </si>
+  <si>
+    <t>Notificações (WebSocket)</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Por tudo lindo</t>
+  </si>
+  <si>
+    <t>Aplicar Separação de Permissões</t>
+  </si>
+  <si>
+    <t>Testar</t>
   </si>
 </sst>
 </file>
@@ -564,160 +586,160 @@
     </xf>
   </cellXfs>
   <cellStyles count="155">
-    <cellStyle name="Hiperligação" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1065,7 +1087,7 @@
   </sheetPr>
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -1781,4 +1803,57 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365795F5-0F9C-4153-B342-2B2DCF2465B6}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>